--- a/Plan/Plan.xlsx
+++ b/Plan/Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CE80B-E484-4994-91A6-BE1FD0994614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA997A77-8BCE-4387-88C4-C170DE16F019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24030" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sprint 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,31 +61,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Complete Videos Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete UI Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete AI Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete Output Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combine Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjustments and Improvments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Complete GPS Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Complete Videos Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete UI Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete AI Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete Output Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combine Modules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjustments and Improvments</t>
+    <t>Working On AI Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +418,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -458,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -480,7 +484,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
